--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/PerfilClientesInternos.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/PerfilClientesInternos.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r06xd\Documents\Rogger\Relative\quski-bre\Matrices\Produccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskiBre\Matrices\Matrices v2\Produccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61191A3-A3FB-4224-9A55-1427F081A9F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CD7728-3A8C-41E5-A416-580A2D4A0C9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -24,32 +30,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>r06xd</author>
-  </authors>
-  <commentList>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{52E35E2B-C031-4EB7-8C5C-FE7A9F7B9826}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Variables que se declara para usarla en accion, esta variable guarda el valor adicional de perfil del del cliente interno pero numerico no de tipo Q</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="28">
   <si>
     <t>RuleSet</t>
   </si>
@@ -72,12 +54,6 @@
     <t>Q5</t>
   </si>
   <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>Q9</t>
-  </si>
-  <si>
     <t>RULEFLOW-GROUP</t>
   </si>
   <si>
@@ -91,21 +67,6 @@
   </si>
   <si>
     <t>Q4</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
-    <t>Q10</t>
-  </si>
-  <si>
-    <t>cliente.getScore()&gt;=$param</t>
-  </si>
-  <si>
-    <t>cliente.getScore()&lt;=$param</t>
   </si>
   <si>
     <t>GRUPO</t>
@@ -129,41 +90,38 @@
     <t>GrupoPerfilClienteInterno</t>
   </si>
   <si>
-    <t>variablesNegocio:VariablesNegocio</t>
-  </si>
-  <si>
-    <t>$param</t>
-  </si>
-  <si>
-    <t>variablesNegocio.setPerfilInternoNuerico(Integer.valueOf($param));</t>
-  </si>
-  <si>
-    <t>DECLARACION DE VARIABLE ADICIONAL</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>com.relative.brecreditosnuevos.objetosnegocio.Cliente,com.relative.brecreditosnuevos.objetosnegocio.VariablesNegocio</t>
   </si>
   <si>
-    <t>PERFIL CLIENTE INTERNO NUMERICO</t>
+    <t>cliente.setGrupoInterno(Integer.valueOf($param));</t>
   </si>
   <si>
-    <t>INICIO DEL RANGO DE SCORE</t>
+    <t>cliente.getPerfilExterno()==$param</t>
   </si>
   <si>
-    <t>FIN DEL RANGO DE SCORE</t>
+    <t>cliente.getPerfilComportamiento()==$param</t>
   </si>
   <si>
-    <t>cliente.setGrupoInterno(Integer.valueOf($param));</t>
+    <t>PERFIL EXTERNO</t>
+  </si>
+  <si>
+    <t>PERFIL INTERNO</t>
+  </si>
+  <si>
+    <t>TIEMPO CANCELACION</t>
+  </si>
+  <si>
+    <t>cliente.getTiempoCancelacion()&gt;=$param</t>
+  </si>
+  <si>
+    <t>cliente.getTiempoCancelacion()&lt;=$param</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -208,34 +166,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,18 +229,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -352,16 +283,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -389,29 +328,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -513,9 +445,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -562,9 +494,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -611,9 +543,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -951,421 +883,1825 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="1024" width="21.6640625"/>
+    <col min="1" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="11" width="21.6640625"/>
+    <col min="14" max="1026" width="21.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="19" t="s">
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>119</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>119</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>119</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>119</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="H12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>119</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>119</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>119</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6">
-        <v>952</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6">
-        <v>922</v>
-      </c>
-      <c r="D10" s="6">
-        <v>951</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6">
-        <v>859</v>
-      </c>
-      <c r="D11" s="6">
-        <v>921</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6">
-        <v>723</v>
-      </c>
-      <c r="D12" s="6">
-        <v>858</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6">
-        <v>555</v>
-      </c>
-      <c r="D13" s="6">
-        <v>722</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>119</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <v>119</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <v>119</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="6">
-        <v>385</v>
-      </c>
-      <c r="D14" s="6">
-        <v>554</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="H18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13">
+        <v>119</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <v>119</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0</v>
+      </c>
+      <c r="D21" s="13">
+        <v>119</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
+        <v>119</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0</v>
+      </c>
+      <c r="D23" s="13">
+        <v>119</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="6">
-        <v>266</v>
-      </c>
-      <c r="D15" s="6">
-        <v>384</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2</v>
-      </c>
-      <c r="H15" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="6">
-        <v>194</v>
-      </c>
-      <c r="D16" s="6">
-        <v>265</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7">
-        <v>2</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="6">
-        <v>164</v>
-      </c>
-      <c r="D17" s="6">
-        <v>193</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="7">
-        <v>3</v>
-      </c>
-      <c r="H17" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>163</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="7">
-        <v>3</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="H23" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <v>119</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13">
+        <v>119</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>3</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="11"/>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13">
+        <v>119</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13">
+        <v>119</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5">
+        <v>3</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
+        <v>119</v>
+      </c>
+      <c r="E28" s="5">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5">
+        <v>3</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0</v>
+      </c>
+      <c r="D29" s="13">
+        <v>119</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>4</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <v>119</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2</v>
+      </c>
+      <c r="F30" s="5">
+        <v>4</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0</v>
+      </c>
+      <c r="D31" s="13">
+        <v>119</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5">
+        <v>4</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13">
+        <v>119</v>
+      </c>
+      <c r="E32" s="5">
+        <v>4</v>
+      </c>
+      <c r="F32" s="5">
+        <v>4</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0</v>
+      </c>
+      <c r="D33" s="13">
+        <v>119</v>
+      </c>
+      <c r="E33" s="5">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5">
+        <v>4</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13">
+        <v>119</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>5</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13">
+        <v>119</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>5</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0</v>
+      </c>
+      <c r="D36" s="13">
+        <v>119</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3</v>
+      </c>
+      <c r="F36" s="5">
+        <v>5</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <v>119</v>
+      </c>
+      <c r="E37" s="5">
+        <v>4</v>
+      </c>
+      <c r="F37" s="5">
+        <v>5</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0</v>
+      </c>
+      <c r="D38" s="13">
+        <v>119</v>
+      </c>
+      <c r="E38" s="5">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5">
+        <v>5</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="13">
+        <v>120</v>
+      </c>
+      <c r="D39" s="13">
+        <v>365</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="13">
+        <v>120</v>
+      </c>
+      <c r="D40" s="13">
+        <v>365</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>2</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="13">
+        <v>120</v>
+      </c>
+      <c r="D41" s="13">
+        <v>365</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>3</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="13">
+        <v>120</v>
+      </c>
+      <c r="D42" s="13">
+        <v>365</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>4</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="13">
+        <v>120</v>
+      </c>
+      <c r="D43" s="13">
+        <v>365</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>5</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="13">
+        <v>120</v>
+      </c>
+      <c r="D44" s="13">
+        <v>365</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="13">
+        <v>120</v>
+      </c>
+      <c r="D45" s="13">
+        <v>365</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="13">
+        <v>120</v>
+      </c>
+      <c r="D46" s="13">
+        <v>365</v>
+      </c>
+      <c r="E46" s="5">
+        <v>3</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="13">
+        <v>120</v>
+      </c>
+      <c r="D47" s="13">
+        <v>365</v>
+      </c>
+      <c r="E47" s="5">
+        <v>4</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="13">
+        <v>120</v>
+      </c>
+      <c r="D48" s="13">
+        <v>365</v>
+      </c>
+      <c r="E48" s="5">
+        <v>5</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="13">
+        <v>120</v>
+      </c>
+      <c r="D49" s="13">
+        <v>365</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="13">
+        <v>120</v>
+      </c>
+      <c r="D50" s="13">
+        <v>365</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2</v>
+      </c>
+      <c r="F50" s="5">
+        <v>2</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="13">
+        <v>120</v>
+      </c>
+      <c r="D51" s="13">
+        <v>365</v>
+      </c>
+      <c r="E51" s="5">
+        <v>3</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="13">
+        <v>120</v>
+      </c>
+      <c r="D52" s="13">
+        <v>365</v>
+      </c>
+      <c r="E52" s="5">
+        <v>4</v>
+      </c>
+      <c r="F52" s="5">
+        <v>2</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="13">
+        <v>120</v>
+      </c>
+      <c r="D53" s="13">
+        <v>365</v>
+      </c>
+      <c r="E53" s="5">
+        <v>5</v>
+      </c>
+      <c r="F53" s="5">
+        <v>2</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="13">
+        <v>120</v>
+      </c>
+      <c r="D54" s="13">
+        <v>365</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
+        <v>3</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="13">
+        <v>120</v>
+      </c>
+      <c r="D55" s="13">
+        <v>365</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2</v>
+      </c>
+      <c r="F55" s="5">
+        <v>3</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="13">
+        <v>120</v>
+      </c>
+      <c r="D56" s="13">
+        <v>365</v>
+      </c>
+      <c r="E56" s="5">
+        <v>3</v>
+      </c>
+      <c r="F56" s="5">
+        <v>3</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="13">
+        <v>120</v>
+      </c>
+      <c r="D57" s="13">
+        <v>365</v>
+      </c>
+      <c r="E57" s="5">
+        <v>4</v>
+      </c>
+      <c r="F57" s="5">
+        <v>3</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="13">
+        <v>120</v>
+      </c>
+      <c r="D58" s="13">
+        <v>365</v>
+      </c>
+      <c r="E58" s="5">
+        <v>5</v>
+      </c>
+      <c r="F58" s="5">
+        <v>3</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="13">
+        <v>120</v>
+      </c>
+      <c r="D59" s="13">
+        <v>365</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
+        <v>4</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="13">
+        <v>120</v>
+      </c>
+      <c r="D60" s="13">
+        <v>365</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2</v>
+      </c>
+      <c r="F60" s="5">
+        <v>4</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="13">
+        <v>120</v>
+      </c>
+      <c r="D61" s="13">
+        <v>365</v>
+      </c>
+      <c r="E61" s="5">
+        <v>3</v>
+      </c>
+      <c r="F61" s="5">
+        <v>4</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="13">
+        <v>120</v>
+      </c>
+      <c r="D62" s="13">
+        <v>365</v>
+      </c>
+      <c r="E62" s="5">
+        <v>4</v>
+      </c>
+      <c r="F62" s="5">
+        <v>4</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="13">
+        <v>120</v>
+      </c>
+      <c r="D63" s="13">
+        <v>365</v>
+      </c>
+      <c r="E63" s="5">
+        <v>5</v>
+      </c>
+      <c r="F63" s="5">
+        <v>4</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="13">
+        <v>120</v>
+      </c>
+      <c r="D64" s="13">
+        <v>365</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>5</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="13">
+        <v>120</v>
+      </c>
+      <c r="D65" s="13">
+        <v>365</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2</v>
+      </c>
+      <c r="F65" s="5">
+        <v>5</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="13">
+        <v>120</v>
+      </c>
+      <c r="D66" s="13">
+        <v>365</v>
+      </c>
+      <c r="E66" s="5">
+        <v>3</v>
+      </c>
+      <c r="F66" s="5">
+        <v>5</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="13">
+        <v>120</v>
+      </c>
+      <c r="D67" s="13">
+        <v>365</v>
+      </c>
+      <c r="E67" s="5">
+        <v>4</v>
+      </c>
+      <c r="F67" s="5">
+        <v>5</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="13">
+        <v>120</v>
+      </c>
+      <c r="D68" s="13">
+        <v>365</v>
+      </c>
+      <c r="E68" s="5">
+        <v>5</v>
+      </c>
+      <c r="F68" s="5">
+        <v>5</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="13">
+        <v>366</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5">
+        <v>1</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="13">
+        <v>366</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5">
+        <v>2</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="13">
+        <v>366</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5">
+        <v>3</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="13">
+        <v>366</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5">
+        <v>4</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="13">
+        <v>366</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5">
+        <v>5</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="6">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
@@ -1374,6 +2710,5 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>